--- a/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,347 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Mahima K Zandu, Pooja S. Jagadish, Andrew Williams, Rajesh Janardhanan</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307787557</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A case of biventricular thrombi with complications</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5050355971", "https://openalex.org/A5039150887", "https://openalex.org/A5044032784", "https://openalex.org/A5053259879"), au_display_name = c("Mahima K Zandu", "Pooja S. Jagadish", "Andrew Williams", "Rajesh Janardhanan"), au_orcid = c("https://orcid.org/0000-0003-2724-6417", "https://orcid.org/0000-0002-6167-0820", "https://orcid.org/0000-0002-7637-7686", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Internal Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA", 
-"Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA", "Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA", "Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", 
-"University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Biventricular thrombi are a rare phenomenon, occurring in patients with hypercoagulable states including antiphospholipid antibody syndrome,[1][1] hypereosinophilic syndrome,[2][2] cardiomyopathies,[3 4][3] myocarditis,[5][4] myocardial infarction (MI)[6][5] and HIV infection.[6][5] Transthoracic</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>Case Reports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Case Reports</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S141953298</t>
+          <t>https://doi.org/10.1136/bcr-2022-252414</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1757-790X</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36319043</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1136/bcr-2022-252414</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://casereports.bmj.com/content/bmjcr/15/11/e252414.full.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>e252414</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>e252414</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://casereports.bmj.com/content/bmjcr/15/11/e252414.full.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4307787557</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4307787557", doi = "https://doi.org/10.1136/bcr-2022-252414", pmid = "https://pubmed.ncbi.nlm.nih.gov/36319043")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/bcr-2022-252414</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1487504546", "https://openalex.org/W1968489370", "https://openalex.org/W2050762625", "https://openalex.org/W2075677985", "https://openalex.org/W2104707461", "https://openalex.org/W2138671502", "https://openalex.org/W2147368884", "https://openalex.org/W2217408267", "https://openalex.org/W2295059301", "https://openalex.org/W2407325653", "https://openalex.org/W3008771900")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2758277628", "https://openalex.org/W2778153218", "https://openalex.org/W2948807893", "https://openalex.org/W3110381201", "https://openalex.org/W3183948672", "https://openalex.org/W2899084033", "https://openalex.org/W3173606202", "https://openalex.org/W2748952813", "https://openalex.org/W1531601525", "https://openalex.org/W4387497383")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Internal Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Cardiology, The University of Arizona College of Medicine, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307787557</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A case of biventricular thrombi with complications</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Case Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bcr-2022-252414</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36319043</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bcr-2022-252414</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
